--- a/biology/Zoologie/Hypsibius_dujardini/Hypsibius_dujardini.xlsx
+++ b/biology/Zoologie/Hypsibius_dujardini/Hypsibius_dujardini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypsibius dujardini est une espèce de tardigrades de la famille des Hypsibiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce possède une distribution cosmopolite[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce possède une distribution cosmopolite.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son temps de génération est de deux semaines. L'espèce peut être élevée en continu et cryopréservée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son temps de génération est de deux semaines. L'espèce peut être élevée en continu et cryopréservée.
 Son génome a été séquencé par le Broad Institute, de la ville américaine de Cambridge (Massachusetts).
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Taxonomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est l'espèce type du genre Hypsibius.
 Cette espèce admet les synonymes suivants :
@@ -615,7 +633,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Félix Dujardin.
 </t>
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Doyère, 1840 : Mémoire sur les Tardigrades. Annales des Sciences Naturelles, vol. 14, p. 269-361 (texte intégral).</t>
         </is>
